--- a/natmiOut/OldD2/LR-pairs_lrc2p/Ebi3-Il27ra.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Ebi3-Il27ra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>Neutro</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +537,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.67294747205829</v>
+        <v>5.392984666666666</v>
       </c>
       <c r="H2">
-        <v>4.67294747205829</v>
+        <v>16.178954</v>
       </c>
       <c r="I2">
-        <v>0.3385221385858004</v>
+        <v>0.3709566379599203</v>
       </c>
       <c r="J2">
-        <v>0.3385221385858004</v>
+        <v>0.3709566379599202</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.89853506846384</v>
+        <v>1.899454</v>
       </c>
       <c r="N2">
-        <v>1.89853506846384</v>
+        <v>3.798908</v>
       </c>
       <c r="O2">
-        <v>0.5133055948865295</v>
+        <v>0.4692036141039673</v>
       </c>
       <c r="P2">
-        <v>0.5133055948865295</v>
+        <v>0.3739095189885477</v>
       </c>
       <c r="Q2">
-        <v>8.871754648792114</v>
+        <v>10.24372629703867</v>
       </c>
       <c r="R2">
-        <v>8.871754648792114</v>
+        <v>61.46235778223199</v>
       </c>
       <c r="S2">
-        <v>0.1737653077290445</v>
+        <v>0.1740541952066516</v>
       </c>
       <c r="T2">
-        <v>0.1737653077290445</v>
+        <v>0.1387042180652026</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +599,52 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.67294747205829</v>
+        <v>5.392984666666666</v>
       </c>
       <c r="H3">
-        <v>4.67294747205829</v>
+        <v>16.178954</v>
       </c>
       <c r="I3">
-        <v>0.3385221385858004</v>
+        <v>0.3709566379599203</v>
       </c>
       <c r="J3">
-        <v>0.3385221385858004</v>
+        <v>0.3709566379599202</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.447744728000976</v>
+        <v>0.5130936666666667</v>
       </c>
       <c r="N3">
-        <v>0.447744728000976</v>
+        <v>1.539281</v>
       </c>
       <c r="O3">
-        <v>0.1210564280752582</v>
+        <v>0.1267445290982863</v>
       </c>
       <c r="P3">
-        <v>0.1210564280752582</v>
+        <v>0.1515045424364609</v>
       </c>
       <c r="Q3">
-        <v>2.092287594839587</v>
+        <v>2.767106276897111</v>
       </c>
       <c r="R3">
-        <v>2.092287594839587</v>
+        <v>24.90395649207399</v>
       </c>
       <c r="S3">
-        <v>0.04098028092159454</v>
+        <v>0.04701672439411357</v>
       </c>
       <c r="T3">
-        <v>0.04098028092159454</v>
+        <v>0.05620161569788559</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +658,55 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.67294747205829</v>
+        <v>5.392984666666666</v>
       </c>
       <c r="H4">
-        <v>4.67294747205829</v>
+        <v>16.178954</v>
       </c>
       <c r="I4">
-        <v>0.3385221385858004</v>
+        <v>0.3709566379599203</v>
       </c>
       <c r="J4">
-        <v>0.3385221385858004</v>
+        <v>0.3709566379599202</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.325876249647974</v>
+        <v>0.1162836666666667</v>
       </c>
       <c r="N4">
-        <v>0.325876249647974</v>
+        <v>0.348851</v>
       </c>
       <c r="O4">
-        <v>0.08810693305775533</v>
+        <v>0.02872442115537467</v>
       </c>
       <c r="P4">
-        <v>0.08810693305775533</v>
+        <v>0.03433584324986914</v>
       </c>
       <c r="Q4">
-        <v>1.522802596996336</v>
+        <v>0.6271160313171111</v>
       </c>
       <c r="R4">
-        <v>1.522802596996336</v>
+        <v>5.644044281854</v>
       </c>
       <c r="S4">
-        <v>0.02982614740294729</v>
+        <v>0.0106555146991426</v>
       </c>
       <c r="T4">
-        <v>0.02982614740294729</v>
+        <v>0.01273710897349028</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +720,60 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.67294747205829</v>
+        <v>5.392984666666666</v>
       </c>
       <c r="H5">
-        <v>4.67294747205829</v>
+        <v>16.178954</v>
       </c>
       <c r="I5">
-        <v>0.3385221385858004</v>
+        <v>0.3709566379599203</v>
       </c>
       <c r="J5">
-        <v>0.3385221385858004</v>
+        <v>0.3709566379599202</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.02648875218427</v>
+        <v>0.3438503333333333</v>
       </c>
       <c r="N5">
-        <v>1.02648875218427</v>
+        <v>1.031551</v>
       </c>
       <c r="O5">
-        <v>0.2775310439804571</v>
+        <v>0.08493799750394264</v>
       </c>
       <c r="P5">
-        <v>0.2775310439804571</v>
+        <v>0.1015309500051476</v>
       </c>
       <c r="Q5">
-        <v>4.796728019615753</v>
+        <v>1.854379575294889</v>
       </c>
       <c r="R5">
-        <v>4.796728019615753</v>
+        <v>16.689416177654</v>
       </c>
       <c r="S5">
-        <v>0.09395040253221416</v>
+        <v>0.03150831398911066</v>
       </c>
       <c r="T5">
-        <v>0.09395040253221416</v>
+        <v>0.03766357986278632</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -779,60 +782,60 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.13101669873376</v>
+        <v>5.392984666666666</v>
       </c>
       <c r="H6">
-        <v>9.13101669873376</v>
+        <v>16.178954</v>
       </c>
       <c r="I6">
-        <v>0.6614778614141996</v>
+        <v>0.3709566379599203</v>
       </c>
       <c r="J6">
-        <v>0.6614778614141996</v>
+        <v>0.3709566379599202</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.89853506846384</v>
+        <v>1.090236333333333</v>
       </c>
       <c r="N6">
-        <v>1.89853506846384</v>
+        <v>3.270709</v>
       </c>
       <c r="O6">
-        <v>0.5133055948865295</v>
+        <v>0.2693104585988698</v>
       </c>
       <c r="P6">
-        <v>0.5133055948865295</v>
+        <v>0.3219212544608909</v>
       </c>
       <c r="Q6">
-        <v>17.33555541327496</v>
+        <v>5.879627828709555</v>
       </c>
       <c r="R6">
-        <v>17.33555541327496</v>
+        <v>52.91665045838599</v>
       </c>
       <c r="S6">
-        <v>0.339540287157485</v>
+        <v>0.09990250228928105</v>
       </c>
       <c r="T6">
-        <v>0.339540287157485</v>
+        <v>0.1194188262426521</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
@@ -841,55 +844,55 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.13101669873376</v>
+        <v>5.392984666666666</v>
       </c>
       <c r="H7">
-        <v>9.13101669873376</v>
+        <v>16.178954</v>
       </c>
       <c r="I7">
-        <v>0.6614778614141996</v>
+        <v>0.3709566379599203</v>
       </c>
       <c r="J7">
-        <v>0.6614778614141996</v>
+        <v>0.3709566379599202</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.447744728000976</v>
+        <v>0.08533300000000001</v>
       </c>
       <c r="N7">
-        <v>0.447744728000976</v>
+        <v>0.170666</v>
       </c>
       <c r="O7">
-        <v>0.1210564280752582</v>
+        <v>0.02107897953955918</v>
       </c>
       <c r="P7">
-        <v>0.1210564280752582</v>
+        <v>0.01679789085908358</v>
       </c>
       <c r="Q7">
-        <v>4.088364588146916</v>
+        <v>0.4601995605606666</v>
       </c>
       <c r="R7">
-        <v>4.088364588146916</v>
+        <v>2.761197363364</v>
       </c>
       <c r="S7">
-        <v>0.08007614715366368</v>
+        <v>0.007819387381620822</v>
       </c>
       <c r="T7">
-        <v>0.08007614715366368</v>
+        <v>0.006231289117903323</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +906,55 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.13101669873376</v>
+        <v>9.145061333333333</v>
       </c>
       <c r="H8">
-        <v>9.13101669873376</v>
+        <v>27.435184</v>
       </c>
       <c r="I8">
-        <v>0.6614778614141996</v>
+        <v>0.6290433620400798</v>
       </c>
       <c r="J8">
-        <v>0.6614778614141996</v>
+        <v>0.6290433620400798</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.325876249647974</v>
+        <v>1.899454</v>
       </c>
       <c r="N8">
-        <v>0.325876249647974</v>
+        <v>3.798908</v>
       </c>
       <c r="O8">
-        <v>0.08810693305775533</v>
+        <v>0.4692036141039673</v>
       </c>
       <c r="P8">
-        <v>0.08810693305775533</v>
+        <v>0.3739095189885477</v>
       </c>
       <c r="Q8">
-        <v>2.975581477256382</v>
+        <v>17.37062332984533</v>
       </c>
       <c r="R8">
-        <v>2.975581477256382</v>
+        <v>104.223739979072</v>
       </c>
       <c r="S8">
-        <v>0.05828078565480804</v>
+        <v>0.2951494188973158</v>
       </c>
       <c r="T8">
-        <v>0.05828078565480804</v>
+        <v>0.2352053009233451</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,55 +968,303 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>9.145061333333333</v>
+      </c>
+      <c r="H9">
+        <v>27.435184</v>
+      </c>
+      <c r="I9">
+        <v>0.6290433620400798</v>
+      </c>
+      <c r="J9">
+        <v>0.6290433620400798</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.5130936666666667</v>
+      </c>
+      <c r="N9">
+        <v>1.539281</v>
+      </c>
+      <c r="O9">
+        <v>0.1267445290982863</v>
+      </c>
+      <c r="P9">
+        <v>0.1515045424364609</v>
+      </c>
+      <c r="Q9">
+        <v>4.692273051411555</v>
+      </c>
+      <c r="R9">
+        <v>42.230457462704</v>
+      </c>
+      <c r="S9">
+        <v>0.07972780470417273</v>
+      </c>
+      <c r="T9">
+        <v>0.09530292673857531</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>9.145061333333333</v>
+      </c>
+      <c r="H10">
+        <v>27.435184</v>
+      </c>
+      <c r="I10">
+        <v>0.6290433620400798</v>
+      </c>
+      <c r="J10">
+        <v>0.6290433620400798</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.1162836666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.348851</v>
+      </c>
+      <c r="O10">
+        <v>0.02872442115537467</v>
+      </c>
+      <c r="P10">
+        <v>0.03433584324986914</v>
+      </c>
+      <c r="Q10">
+        <v>1.063421263731555</v>
+      </c>
+      <c r="R10">
+        <v>9.570791373584001</v>
+      </c>
+      <c r="S10">
+        <v>0.01806890645623208</v>
+      </c>
+      <c r="T10">
+        <v>0.02159873427637887</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>9.145061333333333</v>
+      </c>
+      <c r="H11">
+        <v>27.435184</v>
+      </c>
+      <c r="I11">
+        <v>0.6290433620400798</v>
+      </c>
+      <c r="J11">
+        <v>0.6290433620400798</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.3438503333333333</v>
+      </c>
+      <c r="N11">
+        <v>1.031551</v>
+      </c>
+      <c r="O11">
+        <v>0.08493799750394264</v>
+      </c>
+      <c r="P11">
+        <v>0.1015309500051476</v>
+      </c>
+      <c r="Q11">
+        <v>3.144532387820444</v>
+      </c>
+      <c r="R11">
+        <v>28.300791490384</v>
+      </c>
+      <c r="S11">
+        <v>0.05342968351483199</v>
+      </c>
+      <c r="T11">
+        <v>0.06386737014236134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>9.13101669873376</v>
-      </c>
-      <c r="H9">
-        <v>9.13101669873376</v>
-      </c>
-      <c r="I9">
-        <v>0.6614778614141996</v>
-      </c>
-      <c r="J9">
-        <v>0.6614778614141996</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1.02648875218427</v>
-      </c>
-      <c r="N9">
-        <v>1.02648875218427</v>
-      </c>
-      <c r="O9">
-        <v>0.2775310439804571</v>
-      </c>
-      <c r="P9">
-        <v>0.2775310439804571</v>
-      </c>
-      <c r="Q9">
-        <v>9.37288593725695</v>
-      </c>
-      <c r="R9">
-        <v>9.37288593725695</v>
-      </c>
-      <c r="S9">
-        <v>0.1835806414482429</v>
-      </c>
-      <c r="T9">
-        <v>0.1835806414482429</v>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>9.145061333333333</v>
+      </c>
+      <c r="H12">
+        <v>27.435184</v>
+      </c>
+      <c r="I12">
+        <v>0.6290433620400798</v>
+      </c>
+      <c r="J12">
+        <v>0.6290433620400798</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.090236333333333</v>
+      </c>
+      <c r="N12">
+        <v>3.270709</v>
+      </c>
+      <c r="O12">
+        <v>0.2693104585988698</v>
+      </c>
+      <c r="P12">
+        <v>0.3219212544608909</v>
+      </c>
+      <c r="Q12">
+        <v>9.970278136161777</v>
+      </c>
+      <c r="R12">
+        <v>89.732503225456</v>
+      </c>
+      <c r="S12">
+        <v>0.1694079563095888</v>
+      </c>
+      <c r="T12">
+        <v>0.2025024282182388</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>9.145061333333333</v>
+      </c>
+      <c r="H13">
+        <v>27.435184</v>
+      </c>
+      <c r="I13">
+        <v>0.6290433620400798</v>
+      </c>
+      <c r="J13">
+        <v>0.6290433620400798</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.5</v>
+      </c>
+      <c r="M13">
+        <v>0.08533300000000001</v>
+      </c>
+      <c r="N13">
+        <v>0.170666</v>
+      </c>
+      <c r="O13">
+        <v>0.02107897953955918</v>
+      </c>
+      <c r="P13">
+        <v>0.01679789085908358</v>
+      </c>
+      <c r="Q13">
+        <v>0.7803755187573334</v>
+      </c>
+      <c r="R13">
+        <v>4.682253112544</v>
+      </c>
+      <c r="S13">
+        <v>0.01325959215793836</v>
+      </c>
+      <c r="T13">
+        <v>0.01056660174118026</v>
       </c>
     </row>
   </sheetData>
